--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/handback-status.xlsx
@@ -121,7 +121,7 @@
     <t>2017-03-02 09:18:44</t>
   </si>
   <si>
-    <t>2017-03-03 02:34:41</t>
+    <t>2017-03-03 02:45:12</t>
   </si>
   <si>
     <t>True</t>
@@ -130,7 +130,7 @@
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-03-03 02:34:50</t>
+    <t>2017-03-03 02:45:22</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,19 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-03-02 12:43:05</t>
+    <t>2017-11-06 03:16:56</t>
+  </si>
+  <si>
+    <t>Test`1.md</t>
+  </si>
+  <si>
+    <t>test\Test`1.md</t>
+  </si>
+  <si>
+    <t>N\A</t>
+  </si>
+  <si>
+    <t>2017-11-06 03:16:53</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,13 +130,16 @@
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-03-02 09:18:44</t>
-  </si>
-  <si>
     <t>2017-03-03 02:45:12</t>
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-11-06 04:37:51</t>
   </si>
   <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
@@ -187,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -241,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -258,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -316,9 +331,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="test\LocaleLowerCaseTest.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="test\Test`1.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -329,7 +365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -357,58 +393,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -422,55 +458,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
     <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="Test`1.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="Test`1.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -509,58 +603,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -574,49 +668,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>File Name</t>
   </si>
@@ -46,22 +46,34 @@
     <t>.md</t>
   </si>
   <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-11-06 04:58:57</t>
+  </si>
+  <si>
+    <t>Test`1.md</t>
+  </si>
+  <si>
+    <t>test\Test`1.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-11-06 03:16:56</t>
-  </si>
-  <si>
-    <t>Test`1.md</t>
-  </si>
-  <si>
-    <t>test\Test`1.md</t>
-  </si>
-  <si>
     <t>N\A</t>
   </si>
   <si>
-    <t>2017-11-06 03:16:53</t>
+    <t>2017-11-06 04:58:52</t>
+  </si>
+  <si>
+    <t>Task1253037Test.md</t>
+  </si>
+  <si>
+    <t>test\Task1253037Test.md</t>
+  </si>
+  <si>
+    <t>2018-05-08 08:36:17</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -146,6 +158,12 @@
   </si>
   <si>
     <t>2017-03-03 02:45:22</t>
+  </si>
+  <si>
+    <t>Task1253037Test.c7d36845f7f564386ec428c01a3904b397dddbd6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2018-05-08 11:57:31</t>
   </si>
 </sst>
 </file>
@@ -229,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -256,8 +274,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -273,19 +291,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
-    <col min="2" max="2" width="27.7842538016183" customWidth="1"/>
+    <col min="1" max="1" width="23.5855922698975" customWidth="1"/>
+    <col min="2" max="2" width="27.7842540740967" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
-    <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
-    <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
+    <col min="4" max="4" width="13.963942527771" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -342,19 +360,40 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="test\LocaleLowerCaseTest.md" r:id="rId2"/>
     <hyperlink ref="B3" display="test\Test`1.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="test\Task1253037Test.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -371,80 +410,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="1" max="1" width="23.5855922698975" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="4" max="4" width="14.157301902771" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
-    <col min="10" max="10" width="23.5855930873326" customWidth="1"/>
+    <col min="8" max="8" width="30.1631603240967" customWidth="1"/>
+    <col min="9" max="9" width="27.2126369476318" customWidth="1"/>
+    <col min="10" max="10" width="23.5855922698975" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
-    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
-    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="12" max="12" width="32.096752166748" customWidth="1"/>
+    <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
+    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
+    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
+    <col min="17" max="17" width="15.850474357605" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -458,49 +497,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -511,52 +550,52 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -575,86 +614,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="1" max="1" width="23.5855922698975" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="4" max="4" width="14.157301902771" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
-    <col min="10" max="10" width="23.5855930873326" customWidth="1"/>
+    <col min="8" max="8" width="30.1631603240967" customWidth="1"/>
+    <col min="9" max="9" width="27.2126369476318" customWidth="1"/>
+    <col min="10" max="10" width="23.5855922698975" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
-    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
-    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="12" max="12" width="32.096752166748" customWidth="1"/>
+    <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
+    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
+    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
+    <col min="17" max="17" width="15.850474357605" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -668,55 +707,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
     <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="Task1253037Test.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="Task1253037Test.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/handback-status.xlsx
@@ -163,7 +163,7 @@
     <t>Task1253037Test.c7d36845f7f564386ec428c01a3904b397dddbd6.de-de.xlf</t>
   </si>
   <si>
-    <t>2018-05-08 11:57:31</t>
+    <t>2018-05-10 14:00:44</t>
   </si>
 </sst>
 </file>
